--- a/data/groups/group3_schedule.xlsx
+++ b/data/groups/group3_schedule.xlsx
@@ -1296,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1366,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
